--- a/Test Case - 5/TC5_Results_B.xlsx
+++ b/Test Case - 5/TC5_Results_B.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="outfile" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -893,18 +893,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -950,24 +950,94 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -998,66 +1068,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1337,29 +1347,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S123"/>
+  <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="V119" sqref="V119"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="S108" sqref="S108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>115</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1383,7 +1393,7 @@
       <c r="O1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>123</v>
       </c>
       <c r="Q1" s="4" t="s">
@@ -1393,27 +1403,27 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1421,7 +1431,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="2"/>
+      <c r="P2" s="5"/>
       <c r="Q2" s="4" t="s">
         <v>124</v>
       </c>
@@ -1429,7 +1439,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1485,7 +1495,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1597,7 +1607,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1653,7 +1663,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1709,7 +1719,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1765,7 +1775,7 @@
         <v>150.15199999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1821,7 +1831,7 @@
         <v>150.15199999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1877,7 +1887,7 @@
         <v>150.15199999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1933,7 +1943,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1989,7 +1999,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2045,7 +2055,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2101,7 +2111,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2156,12 +2166,16 @@
       <c r="R15">
         <v>100.152</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="3">
         <f>0.9*((R15-D15)^0.51)*((SQRT((P15-B15)^2+(Q15-C15)^2)^(-0.35)))</f>
         <v>2.2451053040598627</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" t="b">
+        <f>IF(M15=0,TRUE,OR(AND(S15&lt;(M15*1.03),S15&gt;(M15*0.97)),O15))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2217,7 +2231,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2273,7 +2287,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2329,7 +2343,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2384,12 +2398,16 @@
       <c r="R19">
         <v>100.152</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="3">
         <f>0.9*((R19-D19)^0.51)*((SQRT((P19-B19)^2+(Q19-C19)^2)^(-0.35)))</f>
         <v>2.0387295471145284</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" t="b">
+        <f>IF(M19=0,TRUE,OR(AND(S19&lt;(M19*1.03),S19&gt;(M19*0.97)),O19))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2445,7 +2463,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2501,7 +2519,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2557,7 +2575,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2613,7 +2631,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2669,7 +2687,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2725,7 +2743,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2781,7 +2799,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2837,7 +2855,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2892,12 +2910,16 @@
       <c r="R28">
         <v>100.152</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="3">
         <f>0.9*((R28-D28)^0.51)*((SQRT((P28-B28)^2+(Q28-C28)^2)^(-0.35)))</f>
         <v>2.2907870541034878</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" t="b">
+        <f>IF(M28=0,TRUE,OR(AND(S28&lt;(M28*1.03),S28&gt;(M28*0.97)),O28))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2953,7 +2975,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3009,7 +3031,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3065,7 +3087,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3121,7 +3143,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3177,7 +3199,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3233,7 +3255,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -3288,12 +3310,16 @@
       <c r="R35">
         <v>100.152</v>
       </c>
-      <c r="S35" s="6">
+      <c r="S35" s="3">
         <f>0.9*((R35-D35)^0.51)*((SQRT((P35-B35)^2+(Q35-C35)^2)^(-0.35)))</f>
         <v>2.1479186273378859</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" t="b">
+        <f>IF(M35=0,TRUE,OR(AND(S35&lt;(M35*1.03),S35&gt;(M35*0.97)),O35))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -3349,7 +3375,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -3405,7 +3431,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -3461,7 +3487,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -3517,7 +3543,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -3573,7 +3599,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -3629,7 +3655,7 @@
         <v>150.15199999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -3685,7 +3711,7 @@
         <v>150.15199999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -3741,7 +3767,7 @@
         <v>150.15199999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -3797,7 +3823,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -3853,7 +3879,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -3909,7 +3935,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -3965,7 +3991,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -4021,7 +4047,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -4077,7 +4103,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -4133,7 +4159,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -4189,7 +4215,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -4245,7 +4271,7 @@
         <v>100.152</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -4301,7 +4327,7 @@
         <v>225.15199999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -4357,7 +4383,7 @@
         <v>225.15199999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -4413,7 +4439,7 @@
         <v>150.15199999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -4469,7 +4495,7 @@
         <v>150.15199999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -4524,12 +4550,16 @@
       <c r="R57">
         <v>225.15199999999999</v>
       </c>
-      <c r="S57" s="6">
+      <c r="S57" s="3">
         <f>0.9*((R57-D57)^0.51)*((SQRT((P57-B57)^2+(Q57-C57)^2)^(-0.35)))</f>
         <v>4.3922146558556463</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" t="b">
+        <f>IF(M57=0,TRUE,OR(AND(S57&lt;(M57*1.03),S57&gt;(M57*0.97)),O57))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
@@ -4584,12 +4614,16 @@
       <c r="R58">
         <v>225.15199999999999</v>
       </c>
-      <c r="S58" s="6">
+      <c r="S58" s="3">
         <f>0.9*((R58-D58)^0.51)*((SQRT((P58-B58)^2+(Q58-C58)^2)^(-0.35)))</f>
         <v>3.9022378517656731</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" t="b">
+        <f>IF(M58=0,TRUE,OR(AND(S58&lt;(M58*1.03),S58&gt;(M58*0.97)),O58))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -4644,12 +4678,16 @@
       <c r="R59">
         <v>225.15199999999999</v>
       </c>
-      <c r="S59" s="6">
+      <c r="S59" s="3">
         <f>0.9*((R59-D59)^0.51)*((SQRT((P59-B59)^2+(Q59-C59)^2)^(-0.35)))</f>
         <v>4.354125231426079</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" t="b">
+        <f>IF(M59=0,TRUE,OR(AND(S59&lt;(M59*1.03),S59&gt;(M59*0.97)),O59))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -4705,7 +4743,7 @@
         <v>225.15199999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -4760,12 +4798,16 @@
       <c r="R61">
         <v>225.15199999999999</v>
       </c>
-      <c r="S61" s="6">
+      <c r="S61" s="3">
         <f>0.9*((R61-D61)^0.51)*((SQRT((P61-B61)^2+(Q61-C61)^2)^(-0.35)))</f>
         <v>3.8979365928372802</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" t="b">
+        <f>IF(M61=0,TRUE,OR(AND(S61&lt;(M61*1.03),S61&gt;(M61*0.97)),O61))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -4820,12 +4862,16 @@
       <c r="R62">
         <v>225.15199999999999</v>
       </c>
-      <c r="S62" s="6">
+      <c r="S62" s="3">
         <f>0.9*((R62-D62)^0.51)*((SQRT((P62-B62)^2+(Q62-C62)^2)^(-0.35)))</f>
         <v>4.3754541553478914</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" t="b">
+        <f>IF(M62=0,TRUE,OR(AND(S62&lt;(M62*1.03),S62&gt;(M62*0.97)),O62))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
@@ -4881,7 +4927,7 @@
         <v>150.15199999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -6729,7 +6775,7 @@
         <v>285.15199999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93</v>
       </c>
@@ -6785,7 +6831,7 @@
         <v>285.15199999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>94</v>
       </c>
@@ -6841,7 +6887,7 @@
         <v>285.15199999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
@@ -6897,7 +6943,7 @@
         <v>285.15199999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
@@ -6953,7 +6999,7 @@
         <v>285.15199999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>97</v>
       </c>
@@ -7009,7 +7055,7 @@
         <v>285.15199999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>98</v>
       </c>
@@ -7065,7 +7111,7 @@
         <v>285.15199999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -7121,7 +7167,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>100</v>
       </c>
@@ -7177,7 +7223,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>101</v>
       </c>
@@ -7233,7 +7279,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>102</v>
       </c>
@@ -7289,7 +7335,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>103</v>
       </c>
@@ -7345,7 +7391,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>104</v>
       </c>
@@ -7401,7 +7447,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>105</v>
       </c>
@@ -7457,7 +7503,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>106</v>
       </c>
@@ -7513,7 +7559,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>107</v>
       </c>
@@ -7568,12 +7614,16 @@
       <c r="R111">
         <v>300.15199999999999</v>
       </c>
-      <c r="S111" s="6">
+      <c r="S111" s="3">
         <f>0.9*((R111-D111)^0.51)*((SQRT((P111-B111)^2+(Q111-C111)^2)^(-0.35)))</f>
         <v>1.8917039240593343</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T111" t="b">
+        <f>IF(M111=0,TRUE,OR(AND(S111&lt;(M111*1.03),S111&gt;(M111*0.97)),O111))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>108</v>
       </c>
@@ -8123,19 +8173,69 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:K123 O3:O123">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T35">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T57">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T58">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T59">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T61">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T62">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T111">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
